--- a/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2754" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3726" uniqueCount="308">
   <si>
     <t>Sezione</t>
   </si>
@@ -593,7 +593,7 @@
     <t>Atto Consenso</t>
   </si>
   <si>
-    <t>evento.datiEventoMatrimonio.consensoRiconoscimento.riconoscimento.atto</t>
+    <t>evento.datiEventoMatrimonio.consensoRiconoscimento.atto</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.consensoRiconoscimento.altroUfficiale</t>
@@ -665,25 +665,34 @@
     <t>dataAttoNotarile</t>
   </si>
   <si>
-    <t>Regime patrimoniale - Generalità assistente legale minori</t>
-  </si>
-  <si>
-    <t>Presenza minori</t>
-  </si>
-  <si>
-    <t>presenzaMinori</t>
-  </si>
-  <si>
-    <t>Assistenza minori</t>
-  </si>
-  <si>
-    <t>assistenzaMinori</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenteLegale</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.regimePatrimoniale.nominaAssistenteLegale</t>
+    <t>Padre Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[0]</t>
+  </si>
+  <si>
+    <t>Padre Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[0]</t>
+  </si>
+  <si>
+    <t>Madre Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[1]</t>
+  </si>
+  <si>
+    <t>Madre Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[1]</t>
+  </si>
+  <si>
+    <t>Tutore Sposo</t>
+  </si>
+  <si>
+    <t>Curatore Sposo</t>
   </si>
   <si>
     <t>Figlio</t>
@@ -710,12 +719,27 @@
     <t>giaRiconosciutoDaMadre</t>
   </si>
   <si>
+    <t>Nomina Legale Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].nominaAssistenteLegale</t>
+  </si>
+  <si>
     <t>Atto Nascita Figlio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.datiRiconoscimento[0].attoNascita</t>
   </si>
   <si>
+    <t>Dati generali riconoscimento</t>
+  </si>
+  <si>
+    <t>Tutore Sposa</t>
+  </si>
+  <si>
+    <t>Curatore Sposa</t>
+  </si>
+  <si>
     <t>Assenso figlio</t>
   </si>
   <si>
@@ -731,6 +755,12 @@
     <t>assensoReso</t>
   </si>
   <si>
+    <t>Nomina Legale Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].nominaAssistenteLegale</t>
+  </si>
+  <si>
     <t>Dati Riconoscimento</t>
   </si>
   <si>
@@ -873,6 +903,21 @@
   </si>
   <si>
     <t>attoNotarile</t>
+  </si>
+  <si>
+    <t>Assistenza minore Sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0]</t>
+  </si>
+  <si>
+    <t>tipoAssistente</t>
+  </si>
+  <si>
+    <t>Assistenza minore Sposa</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1]</t>
   </si>
   <si>
     <t>Annotazione Contestuale</t>
@@ -949,7 +994,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G459"/>
+  <dimension ref="A1:G621"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -958,7 +1003,7 @@
     <col min="1" max="1" width="52.546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="94.6640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="70.09375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="86.69140625" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="32.48828125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
   </cols>
@@ -5660,7 +5705,7 @@
         <v>155</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="236">
@@ -5700,7 +5745,7 @@
         <v>159</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="238">
@@ -5740,7 +5785,7 @@
         <v>50</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="240">
@@ -5760,7 +5805,7 @@
         <v>164</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="241">
@@ -5780,7 +5825,7 @@
         <v>52</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="242">
@@ -5800,7 +5845,7 @@
         <v>167</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="243">
@@ -5820,7 +5865,7 @@
         <v>169</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="244">
@@ -5840,7 +5885,7 @@
         <v>171</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="245">
@@ -5860,7 +5905,7 @@
         <v>175</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="246">
@@ -5880,7 +5925,7 @@
         <v>177</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="247">
@@ -5900,7 +5945,7 @@
         <v>179</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="248">
@@ -5940,7 +5985,7 @@
         <v>183</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="250">
@@ -5980,7 +6025,7 @@
         <v>187</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="252">
@@ -6080,7 +6125,7 @@
         <v>183</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="257">
@@ -6120,7 +6165,7 @@
         <v>187</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="259">
@@ -6788,16 +6833,16 @@
         <v>217</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C292" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="E292" s="2" t="s">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>9</v>
@@ -6808,16 +6853,16 @@
         <v>217</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>220</v>
+        <v>72</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>9</v>
@@ -6828,19 +6873,19 @@
         <v>217</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295">
@@ -6848,19 +6893,19 @@
         <v>217</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296">
@@ -6868,16 +6913,16 @@
         <v>217</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>9</v>
@@ -6888,19 +6933,19 @@
         <v>217</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298">
@@ -6908,16 +6953,16 @@
         <v>217</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
@@ -6928,19 +6973,19 @@
         <v>217</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300">
@@ -6948,16 +6993,16 @@
         <v>217</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>9</v>
@@ -6968,19 +7013,19 @@
         <v>217</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302">
@@ -6988,16 +7033,16 @@
         <v>217</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>9</v>
@@ -7008,19 +7053,19 @@
         <v>217</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304">
@@ -7028,16 +7073,16 @@
         <v>217</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>9</v>
@@ -7048,16 +7093,16 @@
         <v>217</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>9</v>
@@ -7068,16 +7113,16 @@
         <v>217</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>9</v>
@@ -7088,16 +7133,16 @@
         <v>217</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>9</v>
@@ -7108,16 +7153,16 @@
         <v>217</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>9</v>
@@ -7128,16 +7173,16 @@
         <v>217</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>9</v>
@@ -7148,16 +7193,16 @@
         <v>217</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>9</v>
@@ -7168,16 +7213,16 @@
         <v>217</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>9</v>
@@ -7188,16 +7233,16 @@
         <v>217</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>9</v>
@@ -7208,16 +7253,16 @@
         <v>217</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>9</v>
@@ -7225,19 +7270,19 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>9</v>
@@ -7245,19 +7290,19 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>9</v>
@@ -7265,19 +7310,19 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>9</v>
@@ -7285,39 +7330,39 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>9</v>
@@ -7325,19 +7370,19 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>9</v>
@@ -7345,19 +7390,19 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>182</v>
+        <v>87</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>9</v>
@@ -7365,19 +7410,19 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>9</v>
@@ -7385,19 +7430,19 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>9</v>
@@ -7405,59 +7450,59 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="F324" s="2" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>9</v>
@@ -7465,19 +7510,19 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>9</v>
@@ -7485,19 +7530,19 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>9</v>
@@ -7505,19 +7550,19 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>9</v>
@@ -7525,19 +7570,19 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>9</v>
@@ -7545,19 +7590,19 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F330" s="2" t="s">
         <v>9</v>
@@ -7565,19 +7610,19 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F331" s="2" t="s">
         <v>9</v>
@@ -7585,19 +7630,19 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>9</v>
@@ -7605,19 +7650,19 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>9</v>
@@ -7625,19 +7670,19 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>9</v>
@@ -7645,19 +7690,19 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>9</v>
@@ -7665,19 +7710,19 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>9</v>
@@ -7685,19 +7730,19 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>9</v>
@@ -7705,19 +7750,19 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>9</v>
@@ -7725,19 +7770,19 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>9</v>
@@ -7745,19 +7790,19 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>9</v>
@@ -7765,19 +7810,19 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>9</v>
@@ -7785,19 +7830,19 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>9</v>
@@ -7805,19 +7850,19 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>9</v>
@@ -7825,19 +7870,19 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>9</v>
@@ -7845,19 +7890,19 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>227</v>
+        <v>93</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>229</v>
+        <v>94</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>9</v>
@@ -7865,19 +7910,19 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>230</v>
+        <v>95</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>231</v>
+        <v>96</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>9</v>
@@ -7885,59 +7930,59 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="F347" s="2" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="F348" s="2" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>9</v>
@@ -7945,19 +7990,19 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>9</v>
@@ -7965,19 +8010,19 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>9</v>
@@ -7985,19 +8030,19 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>9</v>
@@ -8005,19 +8050,19 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>9</v>
@@ -8025,19 +8070,19 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>9</v>
@@ -8045,19 +8090,19 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>9</v>
@@ -8065,19 +8110,19 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="F356" s="2" t="s">
         <v>9</v>
@@ -8085,19 +8130,19 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>9</v>
@@ -8105,19 +8150,19 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D358" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B358" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D358" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="E358" s="2" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>9</v>
@@ -8125,19 +8170,19 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D359" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B359" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D359" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="E359" s="2" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>9</v>
@@ -8145,19 +8190,19 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D360" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B360" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D360" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="E360" s="2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>9</v>
@@ -8165,19 +8210,19 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D361" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B361" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D361" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="E361" s="2" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>9</v>
@@ -8185,19 +8230,19 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D362" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B362" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="E362" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>9</v>
@@ -8205,19 +8250,19 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D363" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B363" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D363" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="E363" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>9</v>
@@ -8225,19 +8270,19 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D364" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B364" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C364" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D364" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="E364" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>9</v>
@@ -8245,19 +8290,19 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D365" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B365" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D365" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="E365" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>9</v>
@@ -8265,19 +8310,19 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D366" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B366" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D366" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="E366" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>9</v>
@@ -8285,19 +8330,19 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D367" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B367" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D367" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="E367" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>9</v>
@@ -8305,19 +8350,19 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D368" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B368" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C368" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="E368" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>9</v>
@@ -8325,19 +8370,19 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>151</v>
+        <v>98</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>9</v>
@@ -8345,19 +8390,19 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>9</v>
@@ -8365,19 +8410,19 @@
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>9</v>
@@ -8385,19 +8430,19 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>9</v>
@@ -8405,19 +8450,19 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>9</v>
@@ -8425,19 +8470,19 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>9</v>
@@ -8445,19 +8490,19 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>9</v>
@@ -8465,19 +8510,19 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>9</v>
@@ -8485,19 +8530,19 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>9</v>
@@ -8505,19 +8550,19 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>9</v>
@@ -8525,59 +8570,59 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="F379" s="2" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="F380" s="2" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>235</v>
+        <v>72</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>9</v>
@@ -8585,39 +8630,39 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="F382" s="2" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="F383" s="2" t="s">
         <v>9</v>
@@ -8625,19 +8670,19 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>9</v>
@@ -8645,19 +8690,19 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>155</v>
+        <v>86</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>9</v>
@@ -8665,19 +8710,19 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>9</v>
@@ -8685,19 +8730,19 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>158</v>
+        <v>89</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>9</v>
@@ -8705,19 +8750,19 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>9</v>
@@ -8725,19 +8770,19 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>9</v>
@@ -8745,19 +8790,19 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>9</v>
@@ -8765,19 +8810,19 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>9</v>
@@ -8785,19 +8830,19 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>9</v>
@@ -8805,19 +8850,19 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>9</v>
@@ -8825,19 +8870,19 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>9</v>
@@ -8845,19 +8890,19 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>9</v>
@@ -8865,19 +8910,19 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>9</v>
@@ -8885,19 +8930,19 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>9</v>
@@ -8905,19 +8950,19 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>9</v>
@@ -8925,19 +8970,19 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>9</v>
@@ -8945,19 +8990,19 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>9</v>
@@ -8965,19 +9010,19 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>9</v>
@@ -8985,19 +9030,19 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>9</v>
@@ -9005,19 +9050,19 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>9</v>
@@ -9025,19 +9070,19 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>9</v>
@@ -9045,19 +9090,19 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>9</v>
@@ -9065,19 +9110,19 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>9</v>
@@ -9085,19 +9130,19 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>9</v>
@@ -9105,19 +9150,19 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>9</v>
@@ -9125,19 +9170,19 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>9</v>
@@ -9145,19 +9190,19 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>9</v>
@@ -9165,19 +9210,19 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>9</v>
@@ -9185,19 +9230,19 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>9</v>
@@ -9205,19 +9250,19 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>9</v>
@@ -9225,19 +9270,19 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>9</v>
@@ -9245,19 +9290,19 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>9</v>
@@ -9265,19 +9310,19 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>9</v>
@@ -9285,59 +9330,59 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="F417" s="2" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F418" s="2" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>9</v>
@@ -9345,39 +9390,39 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>9</v>
@@ -9385,19 +9430,19 @@
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>9</v>
@@ -9405,19 +9450,19 @@
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>9</v>
@@ -9425,79 +9470,79 @@
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>9</v>
@@ -9505,39 +9550,39 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F428" s="2" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>9</v>
@@ -9545,19 +9590,19 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>9</v>
@@ -9565,19 +9610,19 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>9</v>
@@ -9585,19 +9630,19 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>9</v>
@@ -9605,19 +9650,19 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>9</v>
@@ -9625,39 +9670,39 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F434" s="2" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F435" s="2" t="s">
         <v>9</v>
@@ -9665,19 +9710,19 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>9</v>
@@ -9685,19 +9730,19 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>9</v>
@@ -9705,19 +9750,19 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>9</v>
@@ -9725,19 +9770,19 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>247</v>
+        <v>105</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>248</v>
+        <v>106</v>
       </c>
       <c r="F439" s="2" t="s">
         <v>9</v>
@@ -9745,39 +9790,39 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>249</v>
+        <v>107</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>250</v>
+        <v>108</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>251</v>
+        <v>9</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>252</v>
+        <v>109</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>253</v>
+        <v>110</v>
       </c>
       <c r="F441" s="2" t="s">
         <v>9</v>
@@ -9785,19 +9830,19 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>254</v>
+        <v>111</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>255</v>
+        <v>112</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>9</v>
@@ -9805,19 +9850,19 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>256</v>
+        <v>113</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>257</v>
+        <v>114</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>9</v>
@@ -9825,19 +9870,19 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>258</v>
+        <v>115</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>259</v>
+        <v>116</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>9</v>
@@ -9845,19 +9890,19 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>260</v>
+        <v>117</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>261</v>
+        <v>118</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>9</v>
@@ -9865,19 +9910,19 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>9</v>
@@ -9885,79 +9930,79 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>61</v>
+        <v>231</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="F447" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>266</v>
+        <v>70</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>267</v>
+        <v>76</v>
       </c>
       <c r="F448" s="2" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>268</v>
+        <v>72</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>271</v>
+        <v>80</v>
       </c>
       <c r="F450" s="2" t="s">
         <v>9</v>
@@ -9965,19 +10010,19 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>272</v>
+        <v>81</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>273</v>
+        <v>82</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>9</v>
@@ -9985,19 +10030,19 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>274</v>
+        <v>83</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>275</v>
+        <v>84</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>9</v>
@@ -10005,19 +10050,19 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>276</v>
+        <v>85</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D453" s="2" t="s">
         <v>228</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>277</v>
+        <v>86</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>9</v>
@@ -10025,19 +10070,19 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>278</v>
+        <v>87</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>280</v>
+        <v>88</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>9</v>
@@ -10045,10 +10090,10 @@
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>281</v>
+        <v>89</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>8</v>
@@ -10057,7 +10102,7 @@
         <v>228</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>282</v>
+        <v>90</v>
       </c>
       <c r="F455" s="2" t="s">
         <v>9</v>
@@ -10065,19 +10110,19 @@
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>283</v>
+        <v>91</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="F456" s="2" t="s">
         <v>9</v>
@@ -10085,19 +10130,19 @@
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>285</v>
+        <v>93</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>286</v>
+        <v>94</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>9</v>
@@ -10105,19 +10150,19 @@
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>288</v>
+        <v>95</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>289</v>
+        <v>228</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>9</v>
@@ -10125,21 +10170,3261 @@
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E459" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E460" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F460" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E461" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E462" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F462" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F463" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D464" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E464" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F464" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E465" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F465" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E466" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F466" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E467" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E468" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F468" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F470" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E471" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F471" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E472" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F472" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E473" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F473" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E474" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F474" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E475" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F475" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D476" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E476" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F476" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E477" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F477" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E478" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F478" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E479" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F479" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E480" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F480" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E481" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F481" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E482" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F482" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E483" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F483" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E484" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F484" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E485" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D486" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E486" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F486" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E487" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F487" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E488" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F488" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E489" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F489" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D490" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E490" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F490" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E491" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F491" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E492" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F492" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E493" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F493" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D494" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E494" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F494" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E495" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F495" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D496" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E496" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F496" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D497" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E497" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F497" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D498" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E498" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F498" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D499" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E499" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F499" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D500" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E500" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F500" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D501" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E501" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F501" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D502" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E502" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F502" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D503" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E503" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F503" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D504" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E504" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F504" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D505" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E505" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F505" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E506" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F506" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E507" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D508" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E508" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F508" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D509" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E509" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D510" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E510" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D511" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E511" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F511" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D512" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E512" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D513" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E513" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D514" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E514" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D515" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D516" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E516" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F516" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D517" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D518" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E518" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F518" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D519" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E519" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D520" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E520" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F520" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D521" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E521" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F521" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D522" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E522" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D523" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E523" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F523" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D524" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E524" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F524" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D525" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E525" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F525" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D526" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E526" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F526" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D527" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E527" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F527" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D528" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E528" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F528" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D529" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E529" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F529" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D530" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E530" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F530" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D531" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E531" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F531" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D532" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E532" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F532" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D533" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E533" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F533" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D534" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E534" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F534" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D535" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E535" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F535" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D536" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E536" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F536" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D537" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E537" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F537" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D538" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E538" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F538" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D539" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E539" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F539" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D540" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E540" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F540" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D541" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E541" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F541" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D542" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E542" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F542" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D543" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E543" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F543" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D544" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E544" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F544" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D545" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E545" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D546" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E546" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F546" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D547" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E547" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F547" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D548" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E548" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F548" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D549" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D550" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E550" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D551" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E551" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D552" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E552" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D553" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E553" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D554" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E554" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F554" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D555" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E555" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F555" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D556" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E556" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D557" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E557" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D558" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E558" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D559" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E559" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F559" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D560" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E560" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F560" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D561" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E561" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F561" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D562" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E562" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D563" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E563" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F563" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D564" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E564" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D565" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E565" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D566" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E566" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F566" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D567" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E567" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F567" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D568" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E568" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F568" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C569" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D569" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E569" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F569" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D570" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E570" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F570" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D571" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E571" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F571" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C572" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D572" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E572" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F572" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D573" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E573" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F573" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C574" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D574" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E574" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F574" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D575" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E575" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F575" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D576" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E576" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F576" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D577" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E577" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F577" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D578" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E578" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F578" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C579" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D579" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E579" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F579" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D580" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E580" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F580" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D581" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E581" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F581" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D582" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E582" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F582" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D583" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E583" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F583" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D584" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E584" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F584" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D585" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E585" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F585" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D586" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E586" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F586" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D587" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E587" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F587" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D588" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E588" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F588" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C589" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D589" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E589" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F589" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D590" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E590" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F590" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D591" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E591" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F591" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D592" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E592" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F592" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D593" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E593" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F593" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D594" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E594" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F594" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D595" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E595" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F595" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D596" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E596" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F596" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D597" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E597" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F597" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D598" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E598" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F598" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D599" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E599" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F599" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D600" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E600" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F600" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D601" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E601" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F601" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D602" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E602" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F602" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C603" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D603" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E603" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F603" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D604" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E604" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F604" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D605" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E605" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F605" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D606" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E606" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F606" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D607" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E607" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F607" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D608" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E608" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F608" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D609" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E609" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F609" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D610" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E610" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F610" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C611" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D611" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E611" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F611" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D612" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E612" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F612" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C613" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D613" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E613" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B459" s="2" t="s">
+      <c r="F613" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C614" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D614" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E614" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F614" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B615" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C459" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D459" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E459" s="2" t="s">
+      <c r="C615" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D615" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E615" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F459" s="2" t="s">
+      <c r="F615" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C616" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D616" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E616" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F616" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C617" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D617" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E617" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F617" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C618" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D618" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E618" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F618" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C619" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D619" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E619" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F619" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C620" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D620" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E620" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F620" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C621" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D621" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E621" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F621" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4333" uniqueCount="343">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -740,31 +740,25 @@
     <t>dataAttoNotarile</t>
   </si>
   <si>
-    <t>Padre Sposo</t>
+    <t>Generalità padre Sposo - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(2,4,5,99)}</t>
-  </si>
-  <si>
-    <t>Padre Sposa</t>
+    <t>Generalità padre Sposa - Matrimonio</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].assistente[0]</t>
   </si>
   <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[1].tipoAssistente,in,(2,4,5,99)}</t>
+    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Madre Sposo</t>
   </si>
   <si>
     <t>evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].assistente[1]</t>
-  </si>
-  <si>
-    <t>{evento.datiEventoMatrimonio.regimePatrimoniale.assistenzaMinori[0].tipoAssistente,in,(1,4,5,99)}</t>
   </si>
   <si>
     <t>Madre Sposa</t>
@@ -7833,7 +7827,7 @@
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="293">
@@ -7856,7 +7850,7 @@
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="294">
@@ -7879,7 +7873,7 @@
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="295">
@@ -7902,7 +7896,7 @@
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="296">
@@ -7925,7 +7919,7 @@
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="297">
@@ -7948,7 +7942,7 @@
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="298">
@@ -7971,7 +7965,7 @@
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="299">
@@ -7994,7 +7988,7 @@
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="300">
@@ -8017,7 +8011,7 @@
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="301">
@@ -8040,7 +8034,7 @@
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="302">
@@ -8063,7 +8057,7 @@
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="303">
@@ -8086,7 +8080,7 @@
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="304">
@@ -8109,7 +8103,7 @@
         <v>10</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="305">
@@ -8132,7 +8126,7 @@
         <v>10</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="306">
@@ -8155,7 +8149,7 @@
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="307">
@@ -8178,7 +8172,7 @@
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="308">
@@ -8201,7 +8195,7 @@
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="309">
@@ -8224,7 +8218,7 @@
         <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="310">
@@ -8247,7 +8241,7 @@
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="311">
@@ -8270,7 +8264,7 @@
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="312">
@@ -8293,7 +8287,7 @@
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="313">
@@ -8316,12 +8310,12 @@
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>244</v>
+        <v>59</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>79</v>
@@ -8330,7 +8324,7 @@
         <v>9</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>85</v>
@@ -8339,12 +8333,12 @@
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>81</v>
@@ -8353,7 +8347,7 @@
         <v>54</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>87</v>
@@ -8362,12 +8356,12 @@
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>88</v>
@@ -8376,7 +8370,7 @@
         <v>54</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>89</v>
@@ -8385,12 +8379,12 @@
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>90</v>
@@ -8399,7 +8393,7 @@
         <v>54</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>91</v>
@@ -8408,12 +8402,12 @@
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>92</v>
@@ -8422,7 +8416,7 @@
         <v>54</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>93</v>
@@ -8431,12 +8425,12 @@
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>94</v>
@@ -8445,7 +8439,7 @@
         <v>54</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>95</v>
@@ -8454,12 +8448,12 @@
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>96</v>
@@ -8468,7 +8462,7 @@
         <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>97</v>
@@ -8477,12 +8471,12 @@
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>98</v>
@@ -8491,7 +8485,7 @@
         <v>9</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>99</v>
@@ -8500,12 +8494,12 @@
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>100</v>
@@ -8514,7 +8508,7 @@
         <v>9</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>101</v>
@@ -8523,12 +8517,12 @@
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>102</v>
@@ -8537,7 +8531,7 @@
         <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>103</v>
@@ -8546,12 +8540,12 @@
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>104</v>
@@ -8560,7 +8554,7 @@
         <v>54</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>105</v>
@@ -8569,12 +8563,12 @@
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>106</v>
@@ -8583,7 +8577,7 @@
         <v>54</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>107</v>
@@ -8592,12 +8586,12 @@
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>108</v>
@@ -8606,7 +8600,7 @@
         <v>54</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>109</v>
@@ -8615,12 +8609,12 @@
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>110</v>
@@ -8629,7 +8623,7 @@
         <v>54</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>111</v>
@@ -8638,12 +8632,12 @@
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>112</v>
@@ -8652,7 +8646,7 @@
         <v>9</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>113</v>
@@ -8661,12 +8655,12 @@
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>114</v>
@@ -8675,7 +8669,7 @@
         <v>9</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>115</v>
@@ -8684,12 +8678,12 @@
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>116</v>
@@ -8698,7 +8692,7 @@
         <v>9</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>117</v>
@@ -8707,12 +8701,12 @@
         <v>10</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>118</v>
@@ -8721,7 +8715,7 @@
         <v>9</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>119</v>
@@ -8730,12 +8724,12 @@
         <v>10</v>
       </c>
       <c r="G331" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>120</v>
@@ -8744,7 +8738,7 @@
         <v>9</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>121</v>
@@ -8753,12 +8747,12 @@
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>122</v>
@@ -8767,7 +8761,7 @@
         <v>54</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>123</v>
@@ -8776,12 +8770,12 @@
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>124</v>
@@ -8790,7 +8784,7 @@
         <v>54</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>125</v>
@@ -8799,12 +8793,12 @@
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>126</v>
@@ -8813,7 +8807,7 @@
         <v>54</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>127</v>
@@ -8822,12 +8816,12 @@
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>79</v>
@@ -8836,7 +8830,7 @@
         <v>9</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>85</v>
@@ -8845,12 +8839,12 @@
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>81</v>
@@ -8859,7 +8853,7 @@
         <v>54</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>87</v>
@@ -8868,12 +8862,12 @@
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>88</v>
@@ -8882,7 +8876,7 @@
         <v>54</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>89</v>
@@ -8891,12 +8885,12 @@
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>90</v>
@@ -8905,7 +8899,7 @@
         <v>54</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>91</v>
@@ -8914,12 +8908,12 @@
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>92</v>
@@ -8928,7 +8922,7 @@
         <v>54</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>93</v>
@@ -8937,12 +8931,12 @@
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>94</v>
@@ -8951,7 +8945,7 @@
         <v>54</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>95</v>
@@ -8960,12 +8954,12 @@
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>96</v>
@@ -8974,7 +8968,7 @@
         <v>9</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>97</v>
@@ -8983,12 +8977,12 @@
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>98</v>
@@ -8997,7 +8991,7 @@
         <v>9</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>99</v>
@@ -9006,12 +9000,12 @@
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>100</v>
@@ -9020,7 +9014,7 @@
         <v>9</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>101</v>
@@ -9029,12 +9023,12 @@
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>102</v>
@@ -9043,7 +9037,7 @@
         <v>9</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>103</v>
@@ -9052,12 +9046,12 @@
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>104</v>
@@ -9066,7 +9060,7 @@
         <v>54</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>105</v>
@@ -9075,12 +9069,12 @@
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>106</v>
@@ -9089,7 +9083,7 @@
         <v>54</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>107</v>
@@ -9098,12 +9092,12 @@
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>108</v>
@@ -9112,7 +9106,7 @@
         <v>54</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>109</v>
@@ -9121,12 +9115,12 @@
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>110</v>
@@ -9135,7 +9129,7 @@
         <v>54</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>111</v>
@@ -9144,12 +9138,12 @@
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>112</v>
@@ -9158,7 +9152,7 @@
         <v>9</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>113</v>
@@ -9167,12 +9161,12 @@
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>114</v>
@@ -9181,7 +9175,7 @@
         <v>9</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>115</v>
@@ -9190,12 +9184,12 @@
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>116</v>
@@ -9204,7 +9198,7 @@
         <v>9</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>117</v>
@@ -9213,12 +9207,12 @@
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>118</v>
@@ -9227,7 +9221,7 @@
         <v>9</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>119</v>
@@ -9236,12 +9230,12 @@
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>120</v>
@@ -9250,7 +9244,7 @@
         <v>9</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>121</v>
@@ -9259,12 +9253,12 @@
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>122</v>
@@ -9273,7 +9267,7 @@
         <v>54</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>123</v>
@@ -9282,12 +9276,12 @@
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>124</v>
@@ -9296,7 +9290,7 @@
         <v>54</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>125</v>
@@ -9305,12 +9299,12 @@
         <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>126</v>
@@ -9319,7 +9313,7 @@
         <v>54</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>127</v>
@@ -9328,12 +9322,12 @@
         <v>10</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>79</v>
@@ -9342,7 +9336,7 @@
         <v>9</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>85</v>
@@ -9351,12 +9345,12 @@
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>81</v>
@@ -9365,7 +9359,7 @@
         <v>54</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>87</v>
@@ -9374,12 +9368,12 @@
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>88</v>
@@ -9388,7 +9382,7 @@
         <v>54</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>89</v>
@@ -9397,12 +9391,12 @@
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>90</v>
@@ -9411,7 +9405,7 @@
         <v>54</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>91</v>
@@ -9420,12 +9414,12 @@
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>92</v>
@@ -9434,7 +9428,7 @@
         <v>54</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>93</v>
@@ -9443,12 +9437,12 @@
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>94</v>
@@ -9457,7 +9451,7 @@
         <v>54</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>95</v>
@@ -9466,12 +9460,12 @@
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>96</v>
@@ -9480,7 +9474,7 @@
         <v>9</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>97</v>
@@ -9489,12 +9483,12 @@
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>98</v>
@@ -9503,7 +9497,7 @@
         <v>9</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>99</v>
@@ -9512,12 +9506,12 @@
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>100</v>
@@ -9526,7 +9520,7 @@
         <v>9</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>101</v>
@@ -9535,12 +9529,12 @@
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>102</v>
@@ -9549,7 +9543,7 @@
         <v>9</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>103</v>
@@ -9558,12 +9552,12 @@
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>104</v>
@@ -9572,7 +9566,7 @@
         <v>54</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>105</v>
@@ -9581,12 +9575,12 @@
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>106</v>
@@ -9595,7 +9589,7 @@
         <v>54</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>107</v>
@@ -9604,12 +9598,12 @@
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>108</v>
@@ -9618,7 +9612,7 @@
         <v>54</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>109</v>
@@ -9627,12 +9621,12 @@
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>110</v>
@@ -9641,7 +9635,7 @@
         <v>54</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>111</v>
@@ -9650,12 +9644,12 @@
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>112</v>
@@ -9664,7 +9658,7 @@
         <v>9</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>113</v>
@@ -9673,12 +9667,12 @@
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>114</v>
@@ -9687,7 +9681,7 @@
         <v>9</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>115</v>
@@ -9696,12 +9690,12 @@
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>116</v>
@@ -9710,7 +9704,7 @@
         <v>9</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>117</v>
@@ -9719,12 +9713,12 @@
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>118</v>
@@ -9733,7 +9727,7 @@
         <v>9</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>119</v>
@@ -9742,12 +9736,12 @@
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>120</v>
@@ -9756,7 +9750,7 @@
         <v>9</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>121</v>
@@ -9765,12 +9759,12 @@
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>122</v>
@@ -9779,7 +9773,7 @@
         <v>54</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>123</v>
@@ -9788,12 +9782,12 @@
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>124</v>
@@ -9802,7 +9796,7 @@
         <v>54</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>125</v>
@@ -9811,12 +9805,12 @@
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>126</v>
@@ -9825,7 +9819,7 @@
         <v>54</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>127</v>
@@ -9834,12 +9828,12 @@
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>79</v>
@@ -9857,12 +9851,12 @@
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>81</v>
@@ -9880,12 +9874,12 @@
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>88</v>
@@ -9903,12 +9897,12 @@
         <v>10</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>90</v>
@@ -9926,12 +9920,12 @@
         <v>10</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>92</v>
@@ -9949,12 +9943,12 @@
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>94</v>
@@ -9972,12 +9966,12 @@
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>96</v>
@@ -9995,12 +9989,12 @@
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>98</v>
@@ -10018,12 +10012,12 @@
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>100</v>
@@ -10041,12 +10035,12 @@
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>102</v>
@@ -10064,12 +10058,12 @@
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>104</v>
@@ -10087,12 +10081,12 @@
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>106</v>
@@ -10110,12 +10104,12 @@
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>108</v>
@@ -10133,12 +10127,12 @@
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>110</v>
@@ -10156,12 +10150,12 @@
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>112</v>
@@ -10179,12 +10173,12 @@
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>114</v>
@@ -10202,12 +10196,12 @@
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>116</v>
@@ -10225,12 +10219,12 @@
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>118</v>
@@ -10248,12 +10242,12 @@
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>120</v>
@@ -10271,12 +10265,12 @@
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>122</v>
@@ -10294,12 +10288,12 @@
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>124</v>
@@ -10317,12 +10311,12 @@
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>126</v>
@@ -10340,12 +10334,12 @@
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>79</v>
@@ -10363,12 +10357,12 @@
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>81</v>
@@ -10386,12 +10380,12 @@
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>88</v>
@@ -10409,12 +10403,12 @@
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>90</v>
@@ -10432,12 +10426,12 @@
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>92</v>
@@ -10455,12 +10449,12 @@
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>94</v>
@@ -10478,12 +10472,12 @@
         <v>10</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>96</v>
@@ -10501,12 +10495,12 @@
         <v>10</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>98</v>
@@ -10524,12 +10518,12 @@
         <v>10</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>100</v>
@@ -10547,12 +10541,12 @@
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>102</v>
@@ -10570,12 +10564,12 @@
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>104</v>
@@ -10593,12 +10587,12 @@
         <v>10</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>106</v>
@@ -10616,12 +10610,12 @@
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>108</v>
@@ -10639,12 +10633,12 @@
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>110</v>
@@ -10662,12 +10656,12 @@
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>112</v>
@@ -10685,12 +10679,12 @@
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>114</v>
@@ -10708,12 +10702,12 @@
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>116</v>
@@ -10731,12 +10725,12 @@
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>118</v>
@@ -10754,12 +10748,12 @@
         <v>10</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>120</v>
@@ -10777,12 +10771,12 @@
         <v>10</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>122</v>
@@ -10800,12 +10794,12 @@
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>124</v>
@@ -10823,12 +10817,12 @@
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>126</v>
@@ -10846,12 +10840,12 @@
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>79</v>
@@ -10860,21 +10854,21 @@
         <v>9</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>81</v>
@@ -10883,7 +10877,7 @@
         <v>54</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E425" s="2" t="s">
         <v>87</v>
@@ -10892,12 +10886,12 @@
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>88</v>
@@ -10906,7 +10900,7 @@
         <v>54</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>89</v>
@@ -10915,12 +10909,12 @@
         <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>90</v>
@@ -10929,7 +10923,7 @@
         <v>54</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>91</v>
@@ -10938,12 +10932,12 @@
         <v>10</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>92</v>
@@ -10952,7 +10946,7 @@
         <v>54</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E428" s="2" t="s">
         <v>93</v>
@@ -10961,12 +10955,12 @@
         <v>10</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>94</v>
@@ -10975,7 +10969,7 @@
         <v>54</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E429" s="2" t="s">
         <v>95</v>
@@ -10984,12 +10978,12 @@
         <v>10</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>96</v>
@@ -10998,7 +10992,7 @@
         <v>9</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E430" s="2" t="s">
         <v>97</v>
@@ -11007,12 +11001,12 @@
         <v>10</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>98</v>
@@ -11021,7 +11015,7 @@
         <v>9</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>99</v>
@@ -11030,12 +11024,12 @@
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>100</v>
@@ -11044,7 +11038,7 @@
         <v>9</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>101</v>
@@ -11053,12 +11047,12 @@
         <v>10</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>102</v>
@@ -11067,7 +11061,7 @@
         <v>9</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>103</v>
@@ -11076,12 +11070,12 @@
         <v>10</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>104</v>
@@ -11090,7 +11084,7 @@
         <v>54</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>105</v>
@@ -11099,12 +11093,12 @@
         <v>10</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>106</v>
@@ -11113,7 +11107,7 @@
         <v>54</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>107</v>
@@ -11122,12 +11116,12 @@
         <v>10</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>108</v>
@@ -11136,7 +11130,7 @@
         <v>54</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>109</v>
@@ -11145,12 +11139,12 @@
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>110</v>
@@ -11159,7 +11153,7 @@
         <v>54</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>111</v>
@@ -11168,12 +11162,12 @@
         <v>10</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>112</v>
@@ -11182,7 +11176,7 @@
         <v>9</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>113</v>
@@ -11191,12 +11185,12 @@
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>114</v>
@@ -11205,7 +11199,7 @@
         <v>9</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E439" s="2" t="s">
         <v>115</v>
@@ -11214,12 +11208,12 @@
         <v>10</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>116</v>
@@ -11228,7 +11222,7 @@
         <v>9</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>117</v>
@@ -11237,12 +11231,12 @@
         <v>10</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>118</v>
@@ -11251,7 +11245,7 @@
         <v>9</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E441" s="2" t="s">
         <v>119</v>
@@ -11260,12 +11254,12 @@
         <v>10</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>120</v>
@@ -11274,7 +11268,7 @@
         <v>9</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>121</v>
@@ -11283,12 +11277,12 @@
         <v>10</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>122</v>
@@ -11297,7 +11291,7 @@
         <v>54</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>123</v>
@@ -11306,12 +11300,12 @@
         <v>10</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>124</v>
@@ -11320,7 +11314,7 @@
         <v>54</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>125</v>
@@ -11329,12 +11323,12 @@
         <v>10</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>126</v>
@@ -11343,7 +11337,7 @@
         <v>54</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>127</v>
@@ -11352,58 +11346,58 @@
         <v>10</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B446" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E446" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C446" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D446" s="2" t="s">
+      <c r="F446" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G446" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="E446" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F446" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G446" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D447" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E447" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F447" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G447" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="E447" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F447" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G447" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>79</v>
@@ -11412,21 +11406,21 @@
         <v>9</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F448" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>81</v>
@@ -11435,7 +11429,7 @@
         <v>54</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>87</v>
@@ -11444,12 +11438,12 @@
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>88</v>
@@ -11458,7 +11452,7 @@
         <v>54</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>89</v>
@@ -11467,12 +11461,12 @@
         <v>10</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>90</v>
@@ -11481,7 +11475,7 @@
         <v>54</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>91</v>
@@ -11490,12 +11484,12 @@
         <v>10</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>92</v>
@@ -11504,7 +11498,7 @@
         <v>54</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E452" s="2" t="s">
         <v>93</v>
@@ -11513,12 +11507,12 @@
         <v>10</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>94</v>
@@ -11527,7 +11521,7 @@
         <v>54</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E453" s="2" t="s">
         <v>95</v>
@@ -11536,12 +11530,12 @@
         <v>10</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>96</v>
@@ -11550,7 +11544,7 @@
         <v>9</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E454" s="2" t="s">
         <v>97</v>
@@ -11559,12 +11553,12 @@
         <v>10</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>98</v>
@@ -11573,7 +11567,7 @@
         <v>9</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E455" s="2" t="s">
         <v>99</v>
@@ -11582,12 +11576,12 @@
         <v>10</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>100</v>
@@ -11596,7 +11590,7 @@
         <v>9</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E456" s="2" t="s">
         <v>101</v>
@@ -11605,12 +11599,12 @@
         <v>10</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>102</v>
@@ -11619,7 +11613,7 @@
         <v>9</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E457" s="2" t="s">
         <v>103</v>
@@ -11628,12 +11622,12 @@
         <v>10</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>104</v>
@@ -11642,7 +11636,7 @@
         <v>54</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E458" s="2" t="s">
         <v>105</v>
@@ -11651,12 +11645,12 @@
         <v>10</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>106</v>
@@ -11665,7 +11659,7 @@
         <v>54</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E459" s="2" t="s">
         <v>107</v>
@@ -11674,12 +11668,12 @@
         <v>10</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>108</v>
@@ -11688,7 +11682,7 @@
         <v>54</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>109</v>
@@ -11697,12 +11691,12 @@
         <v>10</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>110</v>
@@ -11711,7 +11705,7 @@
         <v>54</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E461" s="2" t="s">
         <v>111</v>
@@ -11720,12 +11714,12 @@
         <v>10</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>112</v>
@@ -11734,7 +11728,7 @@
         <v>9</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E462" s="2" t="s">
         <v>113</v>
@@ -11743,12 +11737,12 @@
         <v>10</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>114</v>
@@ -11757,7 +11751,7 @@
         <v>9</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E463" s="2" t="s">
         <v>115</v>
@@ -11766,12 +11760,12 @@
         <v>10</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>116</v>
@@ -11780,7 +11774,7 @@
         <v>9</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E464" s="2" t="s">
         <v>117</v>
@@ -11789,12 +11783,12 @@
         <v>10</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>118</v>
@@ -11803,7 +11797,7 @@
         <v>9</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E465" s="2" t="s">
         <v>119</v>
@@ -11812,12 +11806,12 @@
         <v>10</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>120</v>
@@ -11826,7 +11820,7 @@
         <v>9</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>121</v>
@@ -11835,12 +11829,12 @@
         <v>10</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>122</v>
@@ -11849,7 +11843,7 @@
         <v>54</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>123</v>
@@ -11858,12 +11852,12 @@
         <v>10</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>124</v>
@@ -11872,7 +11866,7 @@
         <v>54</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E468" s="2" t="s">
         <v>125</v>
@@ -11881,12 +11875,12 @@
         <v>10</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>126</v>
@@ -11895,7 +11889,7 @@
         <v>54</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E469" s="2" t="s">
         <v>127</v>
@@ -11904,12 +11898,12 @@
         <v>10</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>187</v>
@@ -11918,7 +11912,7 @@
         <v>9</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E470" s="2" t="s">
         <v>189</v>
@@ -11927,12 +11921,12 @@
         <v>38</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>191</v>
@@ -11941,7 +11935,7 @@
         <v>9</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E471" s="2" t="s">
         <v>192</v>
@@ -11950,12 +11944,12 @@
         <v>38</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>193</v>
@@ -11964,7 +11958,7 @@
         <v>9</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E472" s="2" t="s">
         <v>194</v>
@@ -11973,12 +11967,12 @@
         <v>38</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>195</v>
@@ -11987,7 +11981,7 @@
         <v>9</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E473" s="2" t="s">
         <v>196</v>
@@ -11996,12 +11990,12 @@
         <v>10</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>197</v>
@@ -12010,7 +12004,7 @@
         <v>9</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E474" s="2" t="s">
         <v>198</v>
@@ -12019,12 +12013,12 @@
         <v>38</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>199</v>
@@ -12033,7 +12027,7 @@
         <v>9</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E475" s="2" t="s">
         <v>200</v>
@@ -12042,12 +12036,12 @@
         <v>10</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>201</v>
@@ -12056,7 +12050,7 @@
         <v>9</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E476" s="2" t="s">
         <v>202</v>
@@ -12065,12 +12059,12 @@
         <v>38</v>
       </c>
       <c r="G476" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>163</v>
@@ -12079,7 +12073,7 @@
         <v>9</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E477" s="2" t="s">
         <v>165</v>
@@ -12093,7 +12087,7 @@
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>166</v>
@@ -12102,7 +12096,7 @@
         <v>54</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>167</v>
@@ -12116,7 +12110,7 @@
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>168</v>
@@ -12125,7 +12119,7 @@
         <v>54</v>
       </c>
       <c r="D479" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E479" s="2" t="s">
         <v>169</v>
@@ -12139,7 +12133,7 @@
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>170</v>
@@ -12148,7 +12142,7 @@
         <v>54</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E480" s="2" t="s">
         <v>171</v>
@@ -12162,7 +12156,7 @@
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>172</v>
@@ -12171,7 +12165,7 @@
         <v>54</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E481" s="2" t="s">
         <v>173</v>
@@ -12185,7 +12179,7 @@
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>174</v>
@@ -12194,7 +12188,7 @@
         <v>54</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E482" s="2" t="s">
         <v>175</v>
@@ -12208,7 +12202,7 @@
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>176</v>
@@ -12217,7 +12211,7 @@
         <v>54</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E483" s="2" t="s">
         <v>58</v>
@@ -12231,7 +12225,7 @@
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>177</v>
@@ -12240,7 +12234,7 @@
         <v>54</v>
       </c>
       <c r="D484" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E484" s="2" t="s">
         <v>178</v>
@@ -12254,7 +12248,7 @@
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>179</v>
@@ -12263,7 +12257,7 @@
         <v>54</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E485" s="2" t="s">
         <v>61</v>
@@ -12277,7 +12271,7 @@
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>180</v>
@@ -12286,7 +12280,7 @@
         <v>54</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E486" s="2" t="s">
         <v>181</v>
@@ -12300,7 +12294,7 @@
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>182</v>
@@ -12309,7 +12303,7 @@
         <v>9</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E487" s="2" t="s">
         <v>183</v>
@@ -12323,7 +12317,7 @@
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>184</v>
@@ -12332,7 +12326,7 @@
         <v>9</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E488" s="2" t="s">
         <v>185</v>
@@ -12346,7 +12340,7 @@
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>67</v>
@@ -12355,7 +12349,7 @@
         <v>54</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E489" s="2" t="s">
         <v>68</v>
@@ -12369,7 +12363,7 @@
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B490" s="2" t="s">
         <v>79</v>
@@ -12378,7 +12372,7 @@
         <v>9</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E490" s="2" t="s">
         <v>85</v>
@@ -12387,12 +12381,12 @@
         <v>10</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>81</v>
@@ -12401,7 +12395,7 @@
         <v>54</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E491" s="2" t="s">
         <v>87</v>
@@ -12410,12 +12404,12 @@
         <v>10</v>
       </c>
       <c r="G491" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>88</v>
@@ -12424,7 +12418,7 @@
         <v>54</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E492" s="2" t="s">
         <v>89</v>
@@ -12433,12 +12427,12 @@
         <v>10</v>
       </c>
       <c r="G492" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>90</v>
@@ -12447,7 +12441,7 @@
         <v>54</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E493" s="2" t="s">
         <v>91</v>
@@ -12456,12 +12450,12 @@
         <v>10</v>
       </c>
       <c r="G493" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>92</v>
@@ -12470,7 +12464,7 @@
         <v>54</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E494" s="2" t="s">
         <v>93</v>
@@ -12479,12 +12473,12 @@
         <v>10</v>
       </c>
       <c r="G494" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>94</v>
@@ -12493,7 +12487,7 @@
         <v>54</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E495" s="2" t="s">
         <v>95</v>
@@ -12502,12 +12496,12 @@
         <v>10</v>
       </c>
       <c r="G495" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>96</v>
@@ -12516,7 +12510,7 @@
         <v>9</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E496" s="2" t="s">
         <v>97</v>
@@ -12525,12 +12519,12 @@
         <v>10</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>98</v>
@@ -12539,7 +12533,7 @@
         <v>9</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E497" s="2" t="s">
         <v>99</v>
@@ -12548,12 +12542,12 @@
         <v>10</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>100</v>
@@ -12562,7 +12556,7 @@
         <v>9</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E498" s="2" t="s">
         <v>101</v>
@@ -12571,12 +12565,12 @@
         <v>10</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>102</v>
@@ -12585,7 +12579,7 @@
         <v>9</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E499" s="2" t="s">
         <v>103</v>
@@ -12594,12 +12588,12 @@
         <v>10</v>
       </c>
       <c r="G499" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>104</v>
@@ -12608,7 +12602,7 @@
         <v>54</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E500" s="2" t="s">
         <v>105</v>
@@ -12617,12 +12611,12 @@
         <v>10</v>
       </c>
       <c r="G500" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>106</v>
@@ -12631,7 +12625,7 @@
         <v>54</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E501" s="2" t="s">
         <v>107</v>
@@ -12640,12 +12634,12 @@
         <v>10</v>
       </c>
       <c r="G501" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B502" s="2" t="s">
         <v>108</v>
@@ -12654,7 +12648,7 @@
         <v>54</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E502" s="2" t="s">
         <v>109</v>
@@ -12663,12 +12657,12 @@
         <v>10</v>
       </c>
       <c r="G502" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B503" s="2" t="s">
         <v>110</v>
@@ -12677,7 +12671,7 @@
         <v>54</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E503" s="2" t="s">
         <v>111</v>
@@ -12686,12 +12680,12 @@
         <v>10</v>
       </c>
       <c r="G503" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B504" s="2" t="s">
         <v>112</v>
@@ -12700,7 +12694,7 @@
         <v>9</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E504" s="2" t="s">
         <v>113</v>
@@ -12709,12 +12703,12 @@
         <v>10</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B505" s="2" t="s">
         <v>114</v>
@@ -12723,7 +12717,7 @@
         <v>9</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E505" s="2" t="s">
         <v>115</v>
@@ -12732,12 +12726,12 @@
         <v>10</v>
       </c>
       <c r="G505" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B506" s="2" t="s">
         <v>116</v>
@@ -12746,7 +12740,7 @@
         <v>9</v>
       </c>
       <c r="D506" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E506" s="2" t="s">
         <v>117</v>
@@ -12755,12 +12749,12 @@
         <v>10</v>
       </c>
       <c r="G506" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B507" s="2" t="s">
         <v>118</v>
@@ -12769,7 +12763,7 @@
         <v>9</v>
       </c>
       <c r="D507" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E507" s="2" t="s">
         <v>119</v>
@@ -12778,12 +12772,12 @@
         <v>10</v>
       </c>
       <c r="G507" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B508" s="2" t="s">
         <v>120</v>
@@ -12792,7 +12786,7 @@
         <v>9</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E508" s="2" t="s">
         <v>121</v>
@@ -12801,12 +12795,12 @@
         <v>10</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B509" s="2" t="s">
         <v>122</v>
@@ -12815,7 +12809,7 @@
         <v>54</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E509" s="2" t="s">
         <v>123</v>
@@ -12824,12 +12818,12 @@
         <v>10</v>
       </c>
       <c r="G509" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B510" s="2" t="s">
         <v>124</v>
@@ -12838,7 +12832,7 @@
         <v>54</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E510" s="2" t="s">
         <v>125</v>
@@ -12847,12 +12841,12 @@
         <v>10</v>
       </c>
       <c r="G510" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>126</v>
@@ -12861,7 +12855,7 @@
         <v>54</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E511" s="2" t="s">
         <v>127</v>
@@ -12870,12 +12864,12 @@
         <v>10</v>
       </c>
       <c r="G511" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>79</v>
@@ -12884,7 +12878,7 @@
         <v>9</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E512" s="2" t="s">
         <v>85</v>
@@ -12893,12 +12887,12 @@
         <v>10</v>
       </c>
       <c r="G512" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>81</v>
@@ -12907,7 +12901,7 @@
         <v>54</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E513" s="2" t="s">
         <v>87</v>
@@ -12916,12 +12910,12 @@
         <v>10</v>
       </c>
       <c r="G513" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B514" s="2" t="s">
         <v>88</v>
@@ -12930,7 +12924,7 @@
         <v>54</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E514" s="2" t="s">
         <v>89</v>
@@ -12939,12 +12933,12 @@
         <v>10</v>
       </c>
       <c r="G514" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B515" s="2" t="s">
         <v>90</v>
@@ -12953,7 +12947,7 @@
         <v>54</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E515" s="2" t="s">
         <v>91</v>
@@ -12962,12 +12956,12 @@
         <v>10</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B516" s="2" t="s">
         <v>92</v>
@@ -12976,7 +12970,7 @@
         <v>54</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E516" s="2" t="s">
         <v>93</v>
@@ -12985,12 +12979,12 @@
         <v>10</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>94</v>
@@ -12999,7 +12993,7 @@
         <v>54</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E517" s="2" t="s">
         <v>95</v>
@@ -13008,12 +13002,12 @@
         <v>10</v>
       </c>
       <c r="G517" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>96</v>
@@ -13022,7 +13016,7 @@
         <v>9</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E518" s="2" t="s">
         <v>97</v>
@@ -13031,12 +13025,12 @@
         <v>10</v>
       </c>
       <c r="G518" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>98</v>
@@ -13045,7 +13039,7 @@
         <v>9</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E519" s="2" t="s">
         <v>99</v>
@@ -13054,12 +13048,12 @@
         <v>10</v>
       </c>
       <c r="G519" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>100</v>
@@ -13068,7 +13062,7 @@
         <v>9</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E520" s="2" t="s">
         <v>101</v>
@@ -13077,12 +13071,12 @@
         <v>10</v>
       </c>
       <c r="G520" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>102</v>
@@ -13091,7 +13085,7 @@
         <v>9</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E521" s="2" t="s">
         <v>103</v>
@@ -13100,12 +13094,12 @@
         <v>10</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B522" s="2" t="s">
         <v>104</v>
@@ -13114,7 +13108,7 @@
         <v>54</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E522" s="2" t="s">
         <v>105</v>
@@ -13123,12 +13117,12 @@
         <v>10</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B523" s="2" t="s">
         <v>106</v>
@@ -13137,7 +13131,7 @@
         <v>54</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E523" s="2" t="s">
         <v>107</v>
@@ -13146,12 +13140,12 @@
         <v>10</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B524" s="2" t="s">
         <v>108</v>
@@ -13160,7 +13154,7 @@
         <v>54</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E524" s="2" t="s">
         <v>109</v>
@@ -13169,12 +13163,12 @@
         <v>10</v>
       </c>
       <c r="G524" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>110</v>
@@ -13183,7 +13177,7 @@
         <v>54</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E525" s="2" t="s">
         <v>111</v>
@@ -13192,12 +13186,12 @@
         <v>10</v>
       </c>
       <c r="G525" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B526" s="2" t="s">
         <v>112</v>
@@ -13206,7 +13200,7 @@
         <v>9</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E526" s="2" t="s">
         <v>113</v>
@@ -13215,12 +13209,12 @@
         <v>10</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B527" s="2" t="s">
         <v>114</v>
@@ -13229,7 +13223,7 @@
         <v>9</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E527" s="2" t="s">
         <v>115</v>
@@ -13238,12 +13232,12 @@
         <v>10</v>
       </c>
       <c r="G527" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>116</v>
@@ -13252,7 +13246,7 @@
         <v>9</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E528" s="2" t="s">
         <v>117</v>
@@ -13261,12 +13255,12 @@
         <v>10</v>
       </c>
       <c r="G528" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B529" s="2" t="s">
         <v>118</v>
@@ -13275,7 +13269,7 @@
         <v>9</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E529" s="2" t="s">
         <v>119</v>
@@ -13284,12 +13278,12 @@
         <v>10</v>
       </c>
       <c r="G529" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B530" s="2" t="s">
         <v>120</v>
@@ -13298,7 +13292,7 @@
         <v>9</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E530" s="2" t="s">
         <v>121</v>
@@ -13307,12 +13301,12 @@
         <v>10</v>
       </c>
       <c r="G530" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>122</v>
@@ -13321,7 +13315,7 @@
         <v>54</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E531" s="2" t="s">
         <v>123</v>
@@ -13330,12 +13324,12 @@
         <v>10</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B532" s="2" t="s">
         <v>124</v>
@@ -13344,7 +13338,7 @@
         <v>54</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E532" s="2" t="s">
         <v>125</v>
@@ -13353,12 +13347,12 @@
         <v>10</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B533" s="2" t="s">
         <v>126</v>
@@ -13367,7 +13361,7 @@
         <v>54</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E533" s="2" t="s">
         <v>127</v>
@@ -13376,58 +13370,58 @@
         <v>10</v>
       </c>
       <c r="G533" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D534" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E534" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B534" s="2" t="s">
+      <c r="F534" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G534" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C534" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D534" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E534" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="F534" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G534" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F535" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G535" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B536" s="2" t="s">
         <v>187</v>
@@ -13436,7 +13430,7 @@
         <v>9</v>
       </c>
       <c r="D536" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E536" s="2" t="s">
         <v>189</v>
@@ -13445,12 +13439,12 @@
         <v>38</v>
       </c>
       <c r="G536" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B537" s="2" t="s">
         <v>191</v>
@@ -13459,7 +13453,7 @@
         <v>9</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E537" s="2" t="s">
         <v>192</v>
@@ -13468,12 +13462,12 @@
         <v>38</v>
       </c>
       <c r="G537" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B538" s="2" t="s">
         <v>193</v>
@@ -13482,7 +13476,7 @@
         <v>9</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E538" s="2" t="s">
         <v>194</v>
@@ -13491,12 +13485,12 @@
         <v>38</v>
       </c>
       <c r="G538" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B539" s="2" t="s">
         <v>195</v>
@@ -13505,7 +13499,7 @@
         <v>9</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E539" s="2" t="s">
         <v>196</v>
@@ -13514,12 +13508,12 @@
         <v>10</v>
       </c>
       <c r="G539" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B540" s="2" t="s">
         <v>197</v>
@@ -13528,7 +13522,7 @@
         <v>9</v>
       </c>
       <c r="D540" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E540" s="2" t="s">
         <v>198</v>
@@ -13537,12 +13531,12 @@
         <v>38</v>
       </c>
       <c r="G540" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B541" s="2" t="s">
         <v>199</v>
@@ -13551,7 +13545,7 @@
         <v>9</v>
       </c>
       <c r="D541" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E541" s="2" t="s">
         <v>200</v>
@@ -13560,12 +13554,12 @@
         <v>10</v>
       </c>
       <c r="G541" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B542" s="2" t="s">
         <v>201</v>
@@ -13574,7 +13568,7 @@
         <v>9</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E542" s="2" t="s">
         <v>202</v>
@@ -13583,12 +13577,12 @@
         <v>38</v>
       </c>
       <c r="G542" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B543" s="2" t="s">
         <v>163</v>
@@ -13597,7 +13591,7 @@
         <v>9</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E543" s="2" t="s">
         <v>165</v>
@@ -13606,12 +13600,12 @@
         <v>10</v>
       </c>
       <c r="G543" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B544" s="2" t="s">
         <v>166</v>
@@ -13620,7 +13614,7 @@
         <v>54</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E544" s="2" t="s">
         <v>167</v>
@@ -13629,12 +13623,12 @@
         <v>10</v>
       </c>
       <c r="G544" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B545" s="2" t="s">
         <v>168</v>
@@ -13643,7 +13637,7 @@
         <v>54</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E545" s="2" t="s">
         <v>169</v>
@@ -13652,12 +13646,12 @@
         <v>10</v>
       </c>
       <c r="G545" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B546" s="2" t="s">
         <v>170</v>
@@ -13666,7 +13660,7 @@
         <v>54</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E546" s="2" t="s">
         <v>171</v>
@@ -13675,12 +13669,12 @@
         <v>10</v>
       </c>
       <c r="G546" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B547" s="2" t="s">
         <v>172</v>
@@ -13689,7 +13683,7 @@
         <v>54</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E547" s="2" t="s">
         <v>173</v>
@@ -13698,12 +13692,12 @@
         <v>10</v>
       </c>
       <c r="G547" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B548" s="2" t="s">
         <v>174</v>
@@ -13712,7 +13706,7 @@
         <v>54</v>
       </c>
       <c r="D548" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E548" s="2" t="s">
         <v>175</v>
@@ -13721,12 +13715,12 @@
         <v>10</v>
       </c>
       <c r="G548" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B549" s="2" t="s">
         <v>176</v>
@@ -13735,7 +13729,7 @@
         <v>54</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E549" s="2" t="s">
         <v>58</v>
@@ -13744,12 +13738,12 @@
         <v>10</v>
       </c>
       <c r="G549" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B550" s="2" t="s">
         <v>177</v>
@@ -13758,7 +13752,7 @@
         <v>54</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E550" s="2" t="s">
         <v>178</v>
@@ -13767,12 +13761,12 @@
         <v>10</v>
       </c>
       <c r="G550" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B551" s="2" t="s">
         <v>179</v>
@@ -13781,7 +13775,7 @@
         <v>54</v>
       </c>
       <c r="D551" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E551" s="2" t="s">
         <v>61</v>
@@ -13790,12 +13784,12 @@
         <v>10</v>
       </c>
       <c r="G551" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B552" s="2" t="s">
         <v>180</v>
@@ -13804,7 +13798,7 @@
         <v>54</v>
       </c>
       <c r="D552" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E552" s="2" t="s">
         <v>181</v>
@@ -13813,12 +13807,12 @@
         <v>10</v>
       </c>
       <c r="G552" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B553" s="2" t="s">
         <v>182</v>
@@ -13827,7 +13821,7 @@
         <v>9</v>
       </c>
       <c r="D553" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E553" s="2" t="s">
         <v>183</v>
@@ -13836,12 +13830,12 @@
         <v>10</v>
       </c>
       <c r="G553" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B554" s="2" t="s">
         <v>184</v>
@@ -13850,7 +13844,7 @@
         <v>9</v>
       </c>
       <c r="D554" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E554" s="2" t="s">
         <v>185</v>
@@ -13859,12 +13853,12 @@
         <v>10</v>
       </c>
       <c r="G554" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B555" s="2" t="s">
         <v>79</v>
@@ -13873,7 +13867,7 @@
         <v>9</v>
       </c>
       <c r="D555" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E555" s="2" t="s">
         <v>85</v>
@@ -13882,12 +13876,12 @@
         <v>10</v>
       </c>
       <c r="G555" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B556" s="2" t="s">
         <v>81</v>
@@ -13896,7 +13890,7 @@
         <v>9</v>
       </c>
       <c r="D556" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E556" s="2" t="s">
         <v>87</v>
@@ -13905,12 +13899,12 @@
         <v>10</v>
       </c>
       <c r="G556" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B557" s="2" t="s">
         <v>88</v>
@@ -13919,7 +13913,7 @@
         <v>9</v>
       </c>
       <c r="D557" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E557" s="2" t="s">
         <v>89</v>
@@ -13928,12 +13922,12 @@
         <v>10</v>
       </c>
       <c r="G557" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B558" s="2" t="s">
         <v>90</v>
@@ -13942,7 +13936,7 @@
         <v>9</v>
       </c>
       <c r="D558" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E558" s="2" t="s">
         <v>91</v>
@@ -13951,12 +13945,12 @@
         <v>10</v>
       </c>
       <c r="G558" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B559" s="2" t="s">
         <v>92</v>
@@ -13965,7 +13959,7 @@
         <v>9</v>
       </c>
       <c r="D559" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E559" s="2" t="s">
         <v>93</v>
@@ -13974,12 +13968,12 @@
         <v>10</v>
       </c>
       <c r="G559" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B560" s="2" t="s">
         <v>94</v>
@@ -13988,7 +13982,7 @@
         <v>9</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E560" s="2" t="s">
         <v>95</v>
@@ -13997,12 +13991,12 @@
         <v>10</v>
       </c>
       <c r="G560" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B561" s="2" t="s">
         <v>96</v>
@@ -14011,7 +14005,7 @@
         <v>9</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E561" s="2" t="s">
         <v>97</v>
@@ -14020,12 +14014,12 @@
         <v>10</v>
       </c>
       <c r="G561" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B562" s="2" t="s">
         <v>98</v>
@@ -14034,7 +14028,7 @@
         <v>9</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E562" s="2" t="s">
         <v>99</v>
@@ -14043,12 +14037,12 @@
         <v>10</v>
       </c>
       <c r="G562" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B563" s="2" t="s">
         <v>100</v>
@@ -14057,7 +14051,7 @@
         <v>9</v>
       </c>
       <c r="D563" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E563" s="2" t="s">
         <v>101</v>
@@ -14066,12 +14060,12 @@
         <v>10</v>
       </c>
       <c r="G563" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B564" s="2" t="s">
         <v>102</v>
@@ -14080,7 +14074,7 @@
         <v>9</v>
       </c>
       <c r="D564" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E564" s="2" t="s">
         <v>103</v>
@@ -14089,12 +14083,12 @@
         <v>10</v>
       </c>
       <c r="G564" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B565" s="2" t="s">
         <v>104</v>
@@ -14103,7 +14097,7 @@
         <v>9</v>
       </c>
       <c r="D565" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E565" s="2" t="s">
         <v>105</v>
@@ -14112,12 +14106,12 @@
         <v>10</v>
       </c>
       <c r="G565" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B566" s="2" t="s">
         <v>106</v>
@@ -14126,7 +14120,7 @@
         <v>9</v>
       </c>
       <c r="D566" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E566" s="2" t="s">
         <v>107</v>
@@ -14135,12 +14129,12 @@
         <v>10</v>
       </c>
       <c r="G566" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B567" s="2" t="s">
         <v>108</v>
@@ -14149,7 +14143,7 @@
         <v>9</v>
       </c>
       <c r="D567" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E567" s="2" t="s">
         <v>109</v>
@@ -14158,12 +14152,12 @@
         <v>10</v>
       </c>
       <c r="G567" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B568" s="2" t="s">
         <v>110</v>
@@ -14172,7 +14166,7 @@
         <v>9</v>
       </c>
       <c r="D568" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E568" s="2" t="s">
         <v>111</v>
@@ -14181,12 +14175,12 @@
         <v>10</v>
       </c>
       <c r="G568" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B569" s="2" t="s">
         <v>112</v>
@@ -14195,7 +14189,7 @@
         <v>9</v>
       </c>
       <c r="D569" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E569" s="2" t="s">
         <v>113</v>
@@ -14204,12 +14198,12 @@
         <v>10</v>
       </c>
       <c r="G569" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B570" s="2" t="s">
         <v>114</v>
@@ -14218,7 +14212,7 @@
         <v>9</v>
       </c>
       <c r="D570" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E570" s="2" t="s">
         <v>115</v>
@@ -14227,12 +14221,12 @@
         <v>10</v>
       </c>
       <c r="G570" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B571" s="2" t="s">
         <v>116</v>
@@ -14241,7 +14235,7 @@
         <v>9</v>
       </c>
       <c r="D571" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E571" s="2" t="s">
         <v>117</v>
@@ -14250,12 +14244,12 @@
         <v>10</v>
       </c>
       <c r="G571" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B572" s="2" t="s">
         <v>118</v>
@@ -14264,7 +14258,7 @@
         <v>9</v>
       </c>
       <c r="D572" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E572" s="2" t="s">
         <v>119</v>
@@ -14273,12 +14267,12 @@
         <v>10</v>
       </c>
       <c r="G572" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B573" s="2" t="s">
         <v>120</v>
@@ -14287,7 +14281,7 @@
         <v>9</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E573" s="2" t="s">
         <v>121</v>
@@ -14296,12 +14290,12 @@
         <v>10</v>
       </c>
       <c r="G573" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B574" s="2" t="s">
         <v>122</v>
@@ -14310,7 +14304,7 @@
         <v>9</v>
       </c>
       <c r="D574" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E574" s="2" t="s">
         <v>123</v>
@@ -14319,12 +14313,12 @@
         <v>10</v>
       </c>
       <c r="G574" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B575" s="2" t="s">
         <v>124</v>
@@ -14333,7 +14327,7 @@
         <v>9</v>
       </c>
       <c r="D575" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E575" s="2" t="s">
         <v>125</v>
@@ -14342,12 +14336,12 @@
         <v>10</v>
       </c>
       <c r="G575" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B576" s="2" t="s">
         <v>126</v>
@@ -14356,7 +14350,7 @@
         <v>9</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E576" s="2" t="s">
         <v>127</v>
@@ -14365,12 +14359,12 @@
         <v>10</v>
       </c>
       <c r="G576" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B577" s="2" t="s">
         <v>79</v>
@@ -14379,21 +14373,21 @@
         <v>9</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E577" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F577" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G577" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B578" s="2" t="s">
         <v>81</v>
@@ -14402,7 +14396,7 @@
         <v>54</v>
       </c>
       <c r="D578" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E578" s="2" t="s">
         <v>87</v>
@@ -14411,12 +14405,12 @@
         <v>10</v>
       </c>
       <c r="G578" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B579" s="2" t="s">
         <v>88</v>
@@ -14425,7 +14419,7 @@
         <v>54</v>
       </c>
       <c r="D579" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E579" s="2" t="s">
         <v>89</v>
@@ -14434,12 +14428,12 @@
         <v>10</v>
       </c>
       <c r="G579" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B580" s="2" t="s">
         <v>90</v>
@@ -14448,7 +14442,7 @@
         <v>54</v>
       </c>
       <c r="D580" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E580" s="2" t="s">
         <v>91</v>
@@ -14457,12 +14451,12 @@
         <v>10</v>
       </c>
       <c r="G580" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B581" s="2" t="s">
         <v>92</v>
@@ -14471,7 +14465,7 @@
         <v>54</v>
       </c>
       <c r="D581" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E581" s="2" t="s">
         <v>93</v>
@@ -14480,12 +14474,12 @@
         <v>10</v>
       </c>
       <c r="G581" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B582" s="2" t="s">
         <v>94</v>
@@ -14494,7 +14488,7 @@
         <v>54</v>
       </c>
       <c r="D582" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E582" s="2" t="s">
         <v>95</v>
@@ -14503,12 +14497,12 @@
         <v>10</v>
       </c>
       <c r="G582" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B583" s="2" t="s">
         <v>96</v>
@@ -14517,7 +14511,7 @@
         <v>9</v>
       </c>
       <c r="D583" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E583" s="2" t="s">
         <v>97</v>
@@ -14526,12 +14520,12 @@
         <v>10</v>
       </c>
       <c r="G583" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B584" s="2" t="s">
         <v>98</v>
@@ -14540,7 +14534,7 @@
         <v>9</v>
       </c>
       <c r="D584" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E584" s="2" t="s">
         <v>99</v>
@@ -14549,12 +14543,12 @@
         <v>10</v>
       </c>
       <c r="G584" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B585" s="2" t="s">
         <v>100</v>
@@ -14563,7 +14557,7 @@
         <v>9</v>
       </c>
       <c r="D585" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E585" s="2" t="s">
         <v>101</v>
@@ -14572,12 +14566,12 @@
         <v>10</v>
       </c>
       <c r="G585" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B586" s="2" t="s">
         <v>102</v>
@@ -14586,21 +14580,21 @@
         <v>9</v>
       </c>
       <c r="D586" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E586" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F586" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G586" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B587" s="2" t="s">
         <v>104</v>
@@ -14609,7 +14603,7 @@
         <v>54</v>
       </c>
       <c r="D587" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E587" s="2" t="s">
         <v>105</v>
@@ -14618,12 +14612,12 @@
         <v>10</v>
       </c>
       <c r="G587" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B588" s="2" t="s">
         <v>106</v>
@@ -14632,7 +14626,7 @@
         <v>54</v>
       </c>
       <c r="D588" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E588" s="2" t="s">
         <v>107</v>
@@ -14641,12 +14635,12 @@
         <v>10</v>
       </c>
       <c r="G588" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B589" s="2" t="s">
         <v>108</v>
@@ -14655,7 +14649,7 @@
         <v>54</v>
       </c>
       <c r="D589" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E589" s="2" t="s">
         <v>109</v>
@@ -14664,12 +14658,12 @@
         <v>10</v>
       </c>
       <c r="G589" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B590" s="2" t="s">
         <v>110</v>
@@ -14678,7 +14672,7 @@
         <v>54</v>
       </c>
       <c r="D590" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>111</v>
@@ -14687,12 +14681,12 @@
         <v>10</v>
       </c>
       <c r="G590" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B591" s="2" t="s">
         <v>112</v>
@@ -14701,7 +14695,7 @@
         <v>9</v>
       </c>
       <c r="D591" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E591" s="2" t="s">
         <v>113</v>
@@ -14710,12 +14704,12 @@
         <v>10</v>
       </c>
       <c r="G591" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B592" s="2" t="s">
         <v>114</v>
@@ -14724,7 +14718,7 @@
         <v>9</v>
       </c>
       <c r="D592" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E592" s="2" t="s">
         <v>115</v>
@@ -14733,12 +14727,12 @@
         <v>10</v>
       </c>
       <c r="G592" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B593" s="2" t="s">
         <v>116</v>
@@ -14747,7 +14741,7 @@
         <v>9</v>
       </c>
       <c r="D593" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E593" s="2" t="s">
         <v>117</v>
@@ -14756,12 +14750,12 @@
         <v>10</v>
       </c>
       <c r="G593" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B594" s="2" t="s">
         <v>118</v>
@@ -14770,21 +14764,21 @@
         <v>9</v>
       </c>
       <c r="D594" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E594" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F594" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G594" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B595" s="2" t="s">
         <v>120</v>
@@ -14793,7 +14787,7 @@
         <v>9</v>
       </c>
       <c r="D595" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E595" s="2" t="s">
         <v>121</v>
@@ -14802,12 +14796,12 @@
         <v>10</v>
       </c>
       <c r="G595" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B596" s="2" t="s">
         <v>122</v>
@@ -14816,7 +14810,7 @@
         <v>54</v>
       </c>
       <c r="D596" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E596" s="2" t="s">
         <v>123</v>
@@ -14825,12 +14819,12 @@
         <v>10</v>
       </c>
       <c r="G596" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B597" s="2" t="s">
         <v>124</v>
@@ -14839,7 +14833,7 @@
         <v>54</v>
       </c>
       <c r="D597" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E597" s="2" t="s">
         <v>125</v>
@@ -14848,12 +14842,12 @@
         <v>10</v>
       </c>
       <c r="G597" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B598" s="2" t="s">
         <v>126</v>
@@ -14862,7 +14856,7 @@
         <v>54</v>
       </c>
       <c r="D598" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E598" s="2" t="s">
         <v>127</v>
@@ -14871,15 +14865,15 @@
         <v>10</v>
       </c>
       <c r="G598" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C599" s="2" t="s">
         <v>54</v>
@@ -14888,7 +14882,7 @@
         <v>70</v>
       </c>
       <c r="E599" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F599" s="2" t="s">
         <v>10</v>
@@ -14899,10 +14893,10 @@
     </row>
     <row r="600">
       <c r="A600" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>9</v>
@@ -14911,10 +14905,10 @@
         <v>70</v>
       </c>
       <c r="E600" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F600" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G600" s="2" t="s">
         <v>59</v>
@@ -14922,10 +14916,10 @@
     </row>
     <row r="601">
       <c r="A601" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>54</v>
@@ -14934,7 +14928,7 @@
         <v>70</v>
       </c>
       <c r="E601" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F601" s="2" t="s">
         <v>10</v>
@@ -14945,10 +14939,10 @@
     </row>
     <row r="602">
       <c r="A602" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>9</v>
@@ -14957,7 +14951,7 @@
         <v>70</v>
       </c>
       <c r="E602" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F602" s="2" t="s">
         <v>10</v>
@@ -14968,10 +14962,10 @@
     </row>
     <row r="603">
       <c r="A603" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>54</v>
@@ -14980,7 +14974,7 @@
         <v>57</v>
       </c>
       <c r="E603" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F603" s="2" t="s">
         <v>10</v>
@@ -14991,10 +14985,10 @@
     </row>
     <row r="604">
       <c r="A604" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>54</v>
@@ -15003,7 +14997,7 @@
         <v>70</v>
       </c>
       <c r="E604" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F604" s="2" t="s">
         <v>10</v>
@@ -15014,10 +15008,10 @@
     </row>
     <row r="605">
       <c r="A605" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>54</v>
@@ -15026,7 +15020,7 @@
         <v>70</v>
       </c>
       <c r="E605" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F605" s="2" t="s">
         <v>10</v>
@@ -15037,10 +15031,10 @@
     </row>
     <row r="606">
       <c r="A606" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C606" s="2" t="s">
         <v>54</v>
@@ -15049,7 +15043,7 @@
         <v>70</v>
       </c>
       <c r="E606" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F606" s="2" t="s">
         <v>10</v>
@@ -15060,10 +15054,10 @@
     </row>
     <row r="607">
       <c r="A607" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>54</v>
@@ -15072,7 +15066,7 @@
         <v>70</v>
       </c>
       <c r="E607" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F607" s="2" t="s">
         <v>10</v>
@@ -15083,10 +15077,10 @@
     </row>
     <row r="608">
       <c r="A608" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C608" s="2" t="s">
         <v>54</v>
@@ -15095,7 +15089,7 @@
         <v>70</v>
       </c>
       <c r="E608" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F608" s="2" t="s">
         <v>10</v>
@@ -15106,10 +15100,10 @@
     </row>
     <row r="609">
       <c r="A609" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>54</v>
@@ -15118,7 +15112,7 @@
         <v>70</v>
       </c>
       <c r="E609" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F609" s="2" t="s">
         <v>10</v>
@@ -15129,10 +15123,10 @@
     </row>
     <row r="610">
       <c r="A610" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C610" s="2" t="s">
         <v>54</v>
@@ -15141,7 +15135,7 @@
         <v>70</v>
       </c>
       <c r="E610" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F610" s="2" t="s">
         <v>10</v>
@@ -15152,10 +15146,10 @@
     </row>
     <row r="611">
       <c r="A611" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>54</v>
@@ -15164,7 +15158,7 @@
         <v>70</v>
       </c>
       <c r="E611" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F611" s="2" t="s">
         <v>10</v>
@@ -15175,10 +15169,10 @@
     </row>
     <row r="612">
       <c r="A612" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>54</v>
@@ -15187,7 +15181,7 @@
         <v>70</v>
       </c>
       <c r="E612" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F612" s="2" t="s">
         <v>10</v>
@@ -15198,19 +15192,19 @@
     </row>
     <row r="613">
       <c r="A613" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D613" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E613" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F613" s="2" t="s">
         <v>10</v>
@@ -15221,19 +15215,19 @@
     </row>
     <row r="614">
       <c r="A614" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B614" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C614" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D614" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E614" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="C614" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D614" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E614" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="F614" s="2" t="s">
         <v>10</v>
@@ -15244,19 +15238,19 @@
     </row>
     <row r="615">
       <c r="A615" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D615" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E615" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F615" s="2" t="s">
         <v>10</v>
@@ -15267,10 +15261,10 @@
     </row>
     <row r="616">
       <c r="A616" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>54</v>
@@ -15279,7 +15273,7 @@
         <v>228</v>
       </c>
       <c r="E616" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F616" s="2" t="s">
         <v>10</v>
@@ -15290,10 +15284,10 @@
     </row>
     <row r="617">
       <c r="A617" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>54</v>
@@ -15302,7 +15296,7 @@
         <v>228</v>
       </c>
       <c r="E617" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F617" s="2" t="s">
         <v>10</v>
@@ -15313,48 +15307,48 @@
     </row>
     <row r="618">
       <c r="A618" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C618" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D618" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B618" s="2" t="s">
+      <c r="E618" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C618" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D618" s="2" t="s">
+      <c r="F618" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G618" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="E618" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F618" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G618" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C619" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D619" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B619" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C619" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D619" s="2" t="s">
+      <c r="E619" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F619" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G619" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="E619" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F619" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G619" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
@@ -2207,7 +2207,7 @@
         <v>79</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>80</v>
@@ -2253,7 +2253,7 @@
         <v>84</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>80</v>
@@ -2276,7 +2276,7 @@
         <v>86</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>80</v>
@@ -2299,7 +2299,7 @@
         <v>88</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>80</v>
@@ -2322,7 +2322,7 @@
         <v>90</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>80</v>
@@ -2437,7 +2437,7 @@
         <v>100</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>80</v>
@@ -2460,7 +2460,7 @@
         <v>102</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>80</v>
@@ -2483,7 +2483,7 @@
         <v>104</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>80</v>
@@ -2506,7 +2506,7 @@
         <v>106</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>80</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
@@ -4053,7 +4053,7 @@
         <v>102</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>132</v>
@@ -4076,7 +4076,7 @@
         <v>104</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>132</v>
@@ -4582,7 +4582,7 @@
         <v>102</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>135</v>
@@ -4605,7 +4605,7 @@
         <v>104</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>135</v>
@@ -5111,7 +5111,7 @@
         <v>102</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>138</v>
@@ -5134,7 +5134,7 @@
         <v>104</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>138</v>
@@ -5640,7 +5640,7 @@
         <v>102</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>141</v>
@@ -5663,7 +5663,7 @@
         <v>104</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>141</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4620" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4620" uniqueCount="355">
   <si>
     <t>Sezione</t>
   </si>
@@ -911,7 +911,10 @@
     <t>66,68,70,71,72,64</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -15757,7 +15760,7 @@
         <v>296</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>124</v>
+        <v>300</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>53</v>
@@ -15777,10 +15780,10 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C637" s="2" t="s">
         <v>53</v>
@@ -15789,7 +15792,7 @@
         <v>70</v>
       </c>
       <c r="E637" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F637" s="2" t="s">
         <v>10</v>
@@ -15800,10 +15803,10 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>9</v>
@@ -15812,10 +15815,10 @@
         <v>70</v>
       </c>
       <c r="E638" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F638" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G638" s="2" t="s">
         <v>59</v>
@@ -15823,10 +15826,10 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>53</v>
@@ -15835,7 +15838,7 @@
         <v>70</v>
       </c>
       <c r="E639" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F639" s="2" t="s">
         <v>10</v>
@@ -15846,10 +15849,10 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>9</v>
@@ -15858,7 +15861,7 @@
         <v>70</v>
       </c>
       <c r="E640" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F640" s="2" t="s">
         <v>10</v>
@@ -15869,10 +15872,10 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>53</v>
@@ -15881,7 +15884,7 @@
         <v>57</v>
       </c>
       <c r="E641" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F641" s="2" t="s">
         <v>10</v>
@@ -15892,10 +15895,10 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>53</v>
@@ -15904,7 +15907,7 @@
         <v>70</v>
       </c>
       <c r="E642" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F642" s="2" t="s">
         <v>10</v>
@@ -15915,10 +15918,10 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>53</v>
@@ -15927,7 +15930,7 @@
         <v>70</v>
       </c>
       <c r="E643" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F643" s="2" t="s">
         <v>10</v>
@@ -15938,10 +15941,10 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>53</v>
@@ -15950,7 +15953,7 @@
         <v>70</v>
       </c>
       <c r="E644" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F644" s="2" t="s">
         <v>10</v>
@@ -15961,10 +15964,10 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>53</v>
@@ -15973,7 +15976,7 @@
         <v>70</v>
       </c>
       <c r="E645" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F645" s="2" t="s">
         <v>10</v>
@@ -15984,10 +15987,10 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>53</v>
@@ -15996,7 +15999,7 @@
         <v>70</v>
       </c>
       <c r="E646" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F646" s="2" t="s">
         <v>10</v>
@@ -16007,10 +16010,10 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>53</v>
@@ -16019,7 +16022,7 @@
         <v>70</v>
       </c>
       <c r="E647" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F647" s="2" t="s">
         <v>10</v>
@@ -16030,10 +16033,10 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>53</v>
@@ -16042,7 +16045,7 @@
         <v>70</v>
       </c>
       <c r="E648" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F648" s="2" t="s">
         <v>10</v>
@@ -16053,10 +16056,10 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>53</v>
@@ -16065,7 +16068,7 @@
         <v>70</v>
       </c>
       <c r="E649" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F649" s="2" t="s">
         <v>10</v>
@@ -16076,10 +16079,10 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>53</v>
@@ -16088,7 +16091,7 @@
         <v>70</v>
       </c>
       <c r="E650" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F650" s="2" t="s">
         <v>10</v>
@@ -16099,10 +16102,10 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>53</v>
@@ -16111,7 +16114,7 @@
         <v>265</v>
       </c>
       <c r="E651" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F651" s="2" t="s">
         <v>10</v>
@@ -16122,19 +16125,19 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C652" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D652" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E652" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F652" s="2" t="s">
         <v>10</v>
@@ -16145,10 +16148,10 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>9</v>
@@ -16157,7 +16160,7 @@
         <v>265</v>
       </c>
       <c r="E653" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F653" s="2" t="s">
         <v>10</v>
@@ -16168,10 +16171,10 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>53</v>
@@ -16180,7 +16183,7 @@
         <v>230</v>
       </c>
       <c r="E654" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F654" s="2" t="s">
         <v>10</v>
@@ -16191,10 +16194,10 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>53</v>
@@ -16203,7 +16206,7 @@
         <v>230</v>
       </c>
       <c r="E655" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F655" s="2" t="s">
         <v>10</v>
@@ -16214,10 +16217,10 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>9</v>
@@ -16226,7 +16229,7 @@
         <v>70</v>
       </c>
       <c r="E656" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F656" s="2" t="s">
         <v>10</v>
@@ -16237,10 +16240,10 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>9</v>
@@ -16249,7 +16252,7 @@
         <v>70</v>
       </c>
       <c r="E657" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F657" s="2" t="s">
         <v>10</v>
@@ -16260,71 +16263,71 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E658" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F658" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G658" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B659" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E659" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F659" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G659" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="C659" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D659" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E659" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F659" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G659" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E660" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F660" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G660" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4620" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4620" uniqueCount="354">
   <si>
     <t>Sezione</t>
   </si>
@@ -912,9 +912,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -15760,7 +15757,7 @@
         <v>296</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>300</v>
+        <v>124</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>53</v>
@@ -15780,10 +15777,10 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B637" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B637" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C637" s="2" t="s">
         <v>53</v>
@@ -15792,7 +15789,7 @@
         <v>70</v>
       </c>
       <c r="E637" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F637" s="2" t="s">
         <v>10</v>
@@ -15803,10 +15800,10 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>9</v>
@@ -15815,10 +15812,10 @@
         <v>70</v>
       </c>
       <c r="E638" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F638" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="F638" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="G638" s="2" t="s">
         <v>59</v>
@@ -15826,10 +15823,10 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>53</v>
@@ -15838,7 +15835,7 @@
         <v>70</v>
       </c>
       <c r="E639" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F639" s="2" t="s">
         <v>10</v>
@@ -15849,10 +15846,10 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>9</v>
@@ -15861,7 +15858,7 @@
         <v>70</v>
       </c>
       <c r="E640" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F640" s="2" t="s">
         <v>10</v>
@@ -15872,10 +15869,10 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>53</v>
@@ -15884,7 +15881,7 @@
         <v>57</v>
       </c>
       <c r="E641" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F641" s="2" t="s">
         <v>10</v>
@@ -15895,10 +15892,10 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>53</v>
@@ -15907,7 +15904,7 @@
         <v>70</v>
       </c>
       <c r="E642" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F642" s="2" t="s">
         <v>10</v>
@@ -15918,10 +15915,10 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>53</v>
@@ -15930,7 +15927,7 @@
         <v>70</v>
       </c>
       <c r="E643" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F643" s="2" t="s">
         <v>10</v>
@@ -15941,10 +15938,10 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>53</v>
@@ -15953,7 +15950,7 @@
         <v>70</v>
       </c>
       <c r="E644" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F644" s="2" t="s">
         <v>10</v>
@@ -15964,10 +15961,10 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>53</v>
@@ -15976,7 +15973,7 @@
         <v>70</v>
       </c>
       <c r="E645" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F645" s="2" t="s">
         <v>10</v>
@@ -15987,10 +15984,10 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>53</v>
@@ -15999,7 +15996,7 @@
         <v>70</v>
       </c>
       <c r="E646" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F646" s="2" t="s">
         <v>10</v>
@@ -16010,10 +16007,10 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>53</v>
@@ -16022,7 +16019,7 @@
         <v>70</v>
       </c>
       <c r="E647" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F647" s="2" t="s">
         <v>10</v>
@@ -16033,10 +16030,10 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>53</v>
@@ -16045,7 +16042,7 @@
         <v>70</v>
       </c>
       <c r="E648" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F648" s="2" t="s">
         <v>10</v>
@@ -16056,10 +16053,10 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>53</v>
@@ -16068,7 +16065,7 @@
         <v>70</v>
       </c>
       <c r="E649" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F649" s="2" t="s">
         <v>10</v>
@@ -16079,10 +16076,10 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>53</v>
@@ -16091,7 +16088,7 @@
         <v>70</v>
       </c>
       <c r="E650" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F650" s="2" t="s">
         <v>10</v>
@@ -16102,10 +16099,10 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>53</v>
@@ -16114,7 +16111,7 @@
         <v>265</v>
       </c>
       <c r="E651" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F651" s="2" t="s">
         <v>10</v>
@@ -16125,19 +16122,19 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B652" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D652" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C652" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D652" s="2" t="s">
+      <c r="E652" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="E652" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="F652" s="2" t="s">
         <v>10</v>
@@ -16148,10 +16145,10 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>9</v>
@@ -16160,7 +16157,7 @@
         <v>265</v>
       </c>
       <c r="E653" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F653" s="2" t="s">
         <v>10</v>
@@ -16171,10 +16168,10 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>53</v>
@@ -16183,7 +16180,7 @@
         <v>230</v>
       </c>
       <c r="E654" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F654" s="2" t="s">
         <v>10</v>
@@ -16194,10 +16191,10 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>53</v>
@@ -16206,7 +16203,7 @@
         <v>230</v>
       </c>
       <c r="E655" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F655" s="2" t="s">
         <v>10</v>
@@ -16217,10 +16214,10 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>9</v>
@@ -16229,7 +16226,7 @@
         <v>70</v>
       </c>
       <c r="E656" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F656" s="2" t="s">
         <v>10</v>
@@ -16240,10 +16237,10 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>9</v>
@@ -16252,7 +16249,7 @@
         <v>70</v>
       </c>
       <c r="E657" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F657" s="2" t="s">
         <v>10</v>
@@ -16263,71 +16260,71 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B658" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B658" s="2" t="s">
+      <c r="C658" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D658" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C658" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D658" s="2" t="s">
+      <c r="E658" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E658" s="2" t="s">
+      <c r="F658" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G658" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="F658" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G658" s="2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B659" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E659" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C659" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D659" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E659" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="F659" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G659" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B660" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C660" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D660" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E660" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C660" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D660" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E660" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="F660" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G660" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4620" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4620" uniqueCount="355">
   <si>
     <t>Sezione</t>
   </si>
@@ -912,6 +912,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -15757,7 +15760,7 @@
         <v>296</v>
       </c>
       <c r="B636" s="2" t="s">
-        <v>124</v>
+        <v>300</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>53</v>
@@ -15777,10 +15780,10 @@
     </row>
     <row r="637">
       <c r="A637" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B637" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C637" s="2" t="s">
         <v>53</v>
@@ -15789,7 +15792,7 @@
         <v>70</v>
       </c>
       <c r="E637" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F637" s="2" t="s">
         <v>10</v>
@@ -15800,10 +15803,10 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B638" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>9</v>
@@ -15812,10 +15815,10 @@
         <v>70</v>
       </c>
       <c r="E638" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F638" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G638" s="2" t="s">
         <v>59</v>
@@ -15823,10 +15826,10 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>53</v>
@@ -15835,7 +15838,7 @@
         <v>70</v>
       </c>
       <c r="E639" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F639" s="2" t="s">
         <v>10</v>
@@ -15846,10 +15849,10 @@
     </row>
     <row r="640">
       <c r="A640" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B640" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>9</v>
@@ -15858,7 +15861,7 @@
         <v>70</v>
       </c>
       <c r="E640" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F640" s="2" t="s">
         <v>10</v>
@@ -15869,10 +15872,10 @@
     </row>
     <row r="641">
       <c r="A641" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B641" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>53</v>
@@ -15881,7 +15884,7 @@
         <v>57</v>
       </c>
       <c r="E641" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F641" s="2" t="s">
         <v>10</v>
@@ -15892,10 +15895,10 @@
     </row>
     <row r="642">
       <c r="A642" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B642" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>53</v>
@@ -15904,7 +15907,7 @@
         <v>70</v>
       </c>
       <c r="E642" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F642" s="2" t="s">
         <v>10</v>
@@ -15915,10 +15918,10 @@
     </row>
     <row r="643">
       <c r="A643" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B643" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>53</v>
@@ -15927,7 +15930,7 @@
         <v>70</v>
       </c>
       <c r="E643" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F643" s="2" t="s">
         <v>10</v>
@@ -15938,10 +15941,10 @@
     </row>
     <row r="644">
       <c r="A644" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B644" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>53</v>
@@ -15950,7 +15953,7 @@
         <v>70</v>
       </c>
       <c r="E644" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F644" s="2" t="s">
         <v>10</v>
@@ -15961,10 +15964,10 @@
     </row>
     <row r="645">
       <c r="A645" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>53</v>
@@ -15973,7 +15976,7 @@
         <v>70</v>
       </c>
       <c r="E645" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F645" s="2" t="s">
         <v>10</v>
@@ -15984,10 +15987,10 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B646" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>53</v>
@@ -15996,7 +15999,7 @@
         <v>70</v>
       </c>
       <c r="E646" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F646" s="2" t="s">
         <v>10</v>
@@ -16007,10 +16010,10 @@
     </row>
     <row r="647">
       <c r="A647" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B647" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>53</v>
@@ -16019,7 +16022,7 @@
         <v>70</v>
       </c>
       <c r="E647" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F647" s="2" t="s">
         <v>10</v>
@@ -16030,10 +16033,10 @@
     </row>
     <row r="648">
       <c r="A648" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B648" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>53</v>
@@ -16042,7 +16045,7 @@
         <v>70</v>
       </c>
       <c r="E648" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F648" s="2" t="s">
         <v>10</v>
@@ -16053,10 +16056,10 @@
     </row>
     <row r="649">
       <c r="A649" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B649" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>53</v>
@@ -16065,7 +16068,7 @@
         <v>70</v>
       </c>
       <c r="E649" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F649" s="2" t="s">
         <v>10</v>
@@ -16076,10 +16079,10 @@
     </row>
     <row r="650">
       <c r="A650" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B650" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>53</v>
@@ -16088,7 +16091,7 @@
         <v>70</v>
       </c>
       <c r="E650" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F650" s="2" t="s">
         <v>10</v>
@@ -16099,10 +16102,10 @@
     </row>
     <row r="651">
       <c r="A651" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>53</v>
@@ -16111,7 +16114,7 @@
         <v>265</v>
       </c>
       <c r="E651" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F651" s="2" t="s">
         <v>10</v>
@@ -16122,19 +16125,19 @@
     </row>
     <row r="652">
       <c r="A652" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B652" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C652" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D652" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E652" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F652" s="2" t="s">
         <v>10</v>
@@ -16145,10 +16148,10 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B653" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>9</v>
@@ -16157,7 +16160,7 @@
         <v>265</v>
       </c>
       <c r="E653" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F653" s="2" t="s">
         <v>10</v>
@@ -16168,10 +16171,10 @@
     </row>
     <row r="654">
       <c r="A654" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B654" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>53</v>
@@ -16180,7 +16183,7 @@
         <v>230</v>
       </c>
       <c r="E654" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F654" s="2" t="s">
         <v>10</v>
@@ -16191,10 +16194,10 @@
     </row>
     <row r="655">
       <c r="A655" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>53</v>
@@ -16203,7 +16206,7 @@
         <v>230</v>
       </c>
       <c r="E655" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F655" s="2" t="s">
         <v>10</v>
@@ -16214,10 +16217,10 @@
     </row>
     <row r="656">
       <c r="A656" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>9</v>
@@ -16226,7 +16229,7 @@
         <v>70</v>
       </c>
       <c r="E656" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F656" s="2" t="s">
         <v>10</v>
@@ -16237,10 +16240,10 @@
     </row>
     <row r="657">
       <c r="A657" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B657" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>9</v>
@@ -16249,7 +16252,7 @@
         <v>70</v>
       </c>
       <c r="E657" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F657" s="2" t="s">
         <v>10</v>
@@ -16260,71 +16263,71 @@
     </row>
     <row r="658">
       <c r="A658" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B658" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D658" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E658" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F658" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G658" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B659" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D659" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E659" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F659" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G659" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="C659" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D659" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E659" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F659" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G659" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B660" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D660" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E660" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F660" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G660" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
@@ -16338,7 +16338,7 @@
         <v>99</v>
       </c>
       <c r="F658" s="2" t="s">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="G658" s="2" t="s">
         <v>320</v>
@@ -16407,7 +16407,7 @@
         <v>105</v>
       </c>
       <c r="F661" s="2" t="s">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="G661" s="2" t="s">
         <v>320</v>
@@ -16545,7 +16545,7 @@
         <v>117</v>
       </c>
       <c r="F667" s="2" t="s">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="G667" s="2" t="s">
         <v>320</v>
@@ -16614,7 +16614,7 @@
         <v>123</v>
       </c>
       <c r="F670" s="2" t="s">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="G670" s="2" t="s">
         <v>320</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
@@ -17123,7 +17123,7 @@
         <v>107</v>
       </c>
       <c r="C692" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D692" s="2" t="s">
         <v>322</v>
@@ -17146,7 +17146,7 @@
         <v>109</v>
       </c>
       <c r="C693" s="2" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D693" s="2" t="s">
         <v>322</v>
@@ -17155,7 +17155,7 @@
         <v>110</v>
       </c>
       <c r="F693" s="2" t="s">
-        <v>10</v>
+        <v>323</v>
       </c>
       <c r="G693" s="2" t="s">
         <v>324</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5096" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5103" uniqueCount="381">
   <si>
     <t>Sezione</t>
   </si>
@@ -1149,6 +1149,12 @@
   </si>
   <si>
     <t>testoAnnotazione</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
 </sst>
 </file>
@@ -1207,7 +1213,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H728"/>
+  <dimension ref="A1:H729"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -17966,6 +17972,29 @@
         <v>374</v>
       </c>
     </row>
+    <row r="729">
+      <c r="A729" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C729" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D729" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E729" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F729" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G729" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_009.xlsx
@@ -14769,7 +14769,7 @@
         <v>212</v>
       </c>
       <c r="F589" s="2" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G589" s="2" t="s">
         <v>62</v>
